--- a/data_automation/data.xlsx
+++ b/data_automation/data.xlsx
@@ -1,53 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan7\Desktop\과학전람회\data_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\과학전람회\data_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A058B48-CD65-4D97-BC56-E689FAA72335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFCD0F-8BE1-4587-9DA4-81321430F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="분석 데이터" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>파라미터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파장</t>
+    <t>시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 진폭</t>
+    <t>압력 (pa)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래프</t>
+    <t>기음 진동수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최소 진폭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진동수</t>
+    <t>기음 진폭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,10 +117,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,45 +403,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.3984375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="17.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data_automation/data.xlsx
+++ b/data_automation/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\과학전람회\data_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFCD0F-8BE1-4587-9DA4-81321430F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04278AF-1C76-41BC-93DF-CE9F92BB0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>파라미터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기음 진동수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기음 진폭</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기음 진폭 (dB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기음 진동수 (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,18 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.296875" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
@@ -435,18 +439,31 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data_automation/data.xlsx
+++ b/data_automation/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\과학전람회\data_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04278AF-1C76-41BC-93DF-CE9F92BB0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AAFE0B-F27B-431E-B7CF-D5150A38E598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>파라미터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>압력 (pa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.59765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.796875" style="2" customWidth="1"/>
@@ -436,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -447,22 +443,127 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1.9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>95050</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="E3" s="2">
+        <v>95082</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>97073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>101450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>103522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>104627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>106284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>108008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>107442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>107071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="2" t="s">
-        <v>3</v>
+      <c r="E13" s="2">
+        <v>106560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>106319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>105942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>105795</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="2">
+        <v>105616</v>
       </c>
     </row>
   </sheetData>
